--- a/test_data/bms_test_data.xlsx
+++ b/test_data/bms_test_data.xlsx
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test_data/bms_test_data.xlsx
+++ b/test_data/bms_test_data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bms_pai_test\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bms_api_test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="common" sheetId="1" r:id="rId2"/>
     <sheet name="systemManagement" sheetId="4" r:id="rId3"/>
-    <sheet name="activitycenter" sheetId="3" r:id="rId4"/>
+    <sheet name="memberCentre" sheetId="3" r:id="rId4"/>
     <sheet name="personalcenter" sheetId="5" r:id="rId5"/>
     <sheet name="game" sheetId="6" r:id="rId6"/>
     <sheet name="lottery" sheetId="7" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -88,14 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取礼包列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "Content-Type":"application/json"
 }</t>
@@ -104,10 +96,6 @@
   <si>
     <t>{"code": 0,
 "message":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取礼包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,14 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "frontType": "ANDROID",
- "giftId": "",
- "subtabulationId":"" 
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,14 +147,6 @@
   </si>
   <si>
     <t>/auth/oauth/token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/appGiftAndActivity/getGiftAndActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/appGiftAndActivity/applyGift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,11 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"code": 0,
-"message":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/admin/user/page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,6 +426,105 @@
   </si>
   <si>
     <t>查询角色列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/log/page?descs=create_time&amp;current=1&amp;size=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询日历列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descs=create_time&amp;current=1&amp;size=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageParam":{
+        "current":1,
+        "size":20,
+        "orderBy":"id",
+        "orderType":"desc"
+    },
+    "searchParam":{
+        "endTime":"",
+        "levelName":"",
+        "lockFlag":"",
+        "loginType":"",
+        "parentUserName":"",
+        "phone":"",
+        "prizeTeamId":"",
+        "startTime":"",
+        "username":"",
+        "time":"",
+        "sex":"ALL",
+        "parentInviteCode":"",
+        "isOperate":false
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Content-Type":"application/json",
+    "authorization": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-查询列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "username":"auto_test",
+    "password":"123456",
+    "isOperate":false,
+    "phone":"13526355243",
+    "parentUserId":2,
+    "prizeTeamId":101,
+    "isChannel":false
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-新增会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/userEditDetail?userId=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-查询会员资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "authorization": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/userEditSave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-修改会员资料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,19 +938,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1002,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
@@ -1029,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -1083,22 +1149,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="199.5" x14ac:dyDescent="0.2">
@@ -1106,22 +1172,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1129,19 +1195,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1149,19 +1215,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1169,19 +1235,42 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>75</v>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1196,101 +1285,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="39.75" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="69.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="35.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="16" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>74</v>
+      <c r="D3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.0.202:9999/admin/appGiftAndActivity/getGiftAndActivity"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://192.168.0.202:9999/admin/appGiftAndActivity/applyGift"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1326,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -1352,22 +1488,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -1375,22 +1511,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -1398,22 +1534,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -1421,22 +1557,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,22 +1580,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="171" x14ac:dyDescent="0.2">
@@ -1467,22 +1603,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -1490,22 +1626,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -1572,19 +1708,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1592,19 +1728,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1612,19 +1748,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1632,19 +1768,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1652,19 +1788,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1672,19 +1808,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1744,16 +1880,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>10</v>

--- a/test_data/bms_test_data.xlsx
+++ b/test_data/bms_test_data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -525,6 +525,54 @@
   </si>
   <si>
     <t>会员管理-修改会员资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-修改会员登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/updatePassword?userId=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-修改会员资金密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/updateFundPassword?userId=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/updateUserPhone?userId=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-修改会员手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-获取会员彩票注单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bet/lotteryManage/getBetPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageParam":{
+        "current":1,
+        "size":20
+    },
+    "searchParam":{
+        "account":"miya30000"
+    }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,16 +1333,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
     <col min="4" max="4" width="69.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
@@ -1420,6 +1468,98 @@
         <v>87</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>15</v>
       </c>
     </row>

--- a/test_data/bms_test_data.xlsx
+++ b/test_data/bms_test_data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -571,6 +571,163 @@
     },
     "searchParam":{
         "account":"miya30000"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-登出会员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/kickout/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"踢线成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/lock/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-锁定会员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"锁定成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-解锁会员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"解锁成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/unlock/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"禁止投注成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/disableBet/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-禁止会员投注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"禁止提现成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/disableWithdraw/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-禁止会员提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/fundFreeze/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"资金冻结成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-资金冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/disableReturnPoint/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"禁止返点成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-禁止返点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-开启返点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"开启返点成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/enableReturnPoint/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/setIsOperate/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-设置运营账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"设置成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxUser/cancelIsOperate/miya30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理-设置正式账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"取消成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/registerCode/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册码管理-查询列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageParam":{
+        "current":1,
+        "size":20
+    },
+    "searchParam":{
     }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1563,12 +1720,236 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.0.202:9999/admin/appGiftAndActivity/getGiftAndActivity"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/test_data/bms_test_data.xlsx
+++ b/test_data/bms_test_data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -719,6 +719,38 @@
   </si>
   <si>
     <t>注册码管理-查询列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageParam":{
+        "current":1,
+        "size":20
+    },
+    "searchParam":{
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册码管理-生成注册码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"生成注册码成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/registerCode/builderCode?num=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/userLoginLog/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录日志--列表查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1490,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1942,6 +1974,54 @@
       <c r="I20" s="9" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test_data/bms_test_data.xlsx
+++ b/test_data/bms_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="personalcenter" sheetId="5" r:id="rId5"/>
     <sheet name="game" sheetId="6" r:id="rId6"/>
     <sheet name="lottery" sheetId="7" r:id="rId7"/>
+    <sheet name="financialCenter" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -760,6 +761,206 @@
         "size":20
     },
     "searchParam":{
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/member/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员分组--会员分组列表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageParam":{
+        "current":1,
+        "size":20
+    },
+    "searchParam":{
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/member/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员分组--新增会员分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "name":"auto_test",
+    "maxIncome":10000,
+    "minIncome":10000,
+    "maxPayment":10000,
+    "minPayment":10000,
+    "minTransf":10000,
+    "maxTransf":10000,
+    "maxIncome1":"10",
+    "minIncome1":"10",
+    "maxPayment1":"10",
+    "minPayment1":"10",
+    "minTransf1":"10",
+    "maxTransf1":"10",
+    "isForbidRewards":1,
+    "isJoinVip":1,
+    "isDefault":0,
+    "isForbidPrize":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0,
+"message":"成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/member/memberGroupQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员分组--查询会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageParam":{
+        "current":1,
+        "size":20
+    },
+    "searchParam":{
+        "queryList1":"",
+        "startTime":"",
+        "endTime":"",
+        "memberGroupQueryEnum":"",
+        "memberGroupSearchEnum":"",
+        "min":"",
+        "max":null,
+        "maxAmount":"",
+        "minAmout":"",
+        "TeamId":"",
+        "queryList":[
+        ]
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/zxuserlevel/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员等级管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/income/getPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageParam":{
+        "current":1,
+        "size":20,
+        "orderBy":"update_time",
+        "orderType":"desc"
+    },
+    "searchParam":{
+        "i_auditState":"",
+        "createTime":[
+            "2021-04-10 00:00:00",
+            "2021-04-10 23:59:59"
+        ],
+        "startTime":"2021-04-10 00:00:00",
+        "endTime":"2021-04-10 23:59:59",
+        "i_changeMoney":[
+        ],
+        "i_id":"",
+        "maxAmout":"",
+        "minAmout":"",
+        "i_incomeMoneyByType":"",
+        "i_type":"",
+        "suu_levelId":"",
+        "i_userId":"",
+        "suupdate_username":"",
+        "suu_username":"",
+        "suu_isOperate":false
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/income/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "userIdArr":[
+        555
+    ],
+    "amout":"10",
+    "payMoney":10000,
+    "discounts":"0",
+    "discountsMoney":0,
+    "chbMagnification":0,
+    "discountsChbMagnification":0,
+    "isAudit":false,
+    "remark":"0",
+    "chb":"0",
+    "discountsChb":"0",
+    "model":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务中心-新增会员入款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务中心-查询会员入款列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/expenses/getPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务中心-出款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pageParam":{
+        "current":1,
+        "size":20
+    },
+    "searchParam":{
+        "auser_username":"",
+        "e_accountId":"",
+        "e_auditState":"",
+        "createTime":[
+            "2021-04-10 00:00:00",
+            "2021-04-10 23:59:59"
+        ],
+        "e_financeState":"",
+        "e_id":"",
+        "e_payMoney":"",
+        "e_backRemark":"",
+        "e_type":"",
+        "e_userType":"",
+        "startTime":"2021-04-10 00:00:00",
+        "endTime":"2021-04-10 23:59:59",
+        "uuser_userId":"",
+        "uuser_levelId":"",
+        "uuser_username":"",
+        "minAmout":"",
+        "maxAmout":"",
+        "uuser_isOperate":false
     }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1126,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1522,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2018,10 +2219,97 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="I23" s="9"/>
+    <row r="23" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2502,4 +2790,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="48.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="18.5" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="228" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://192.168.0.202:9999/admin/appGiftAndActivity/getGiftAndActivity"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>